--- a/nodes_source_analyses/households/households_collective_chp_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/households/households_collective_chp_network_gas.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -308,9 +316,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -637,6 +642,10 @@
   <si>
     <t>20150409_Employment_v106_AW.xlsx</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -647,7 +656,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -821,11 +830,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1556,49 +1560,49 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1679,7 +1683,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1697,7 +1701,7 @@
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1761,7 +1765,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="178" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1771,35 +1775,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2086,80 +2090,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2279,7 +2218,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2720,50 +2659,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2772,29 +2711,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="99" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="100"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="101"/>
       <c r="C10" s="102"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="101" t="s">
         <v>75</v>
@@ -2803,33 +2742,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="101"/>
       <c r="C12" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="101"/>
       <c r="C13" s="104" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="101"/>
       <c r="C14" s="102" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="101"/>
       <c r="C15" s="102"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="101" t="s">
         <v>80</v>
@@ -2838,49 +2777,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="101"/>
       <c r="C17" s="106" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="101"/>
       <c r="C18" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="101"/>
       <c r="C19" s="108" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="109"/>
       <c r="C20" s="110" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="109"/>
       <c r="C21" s="111" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="109"/>
       <c r="C22" s="112" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="109"/>
       <c r="C23" s="113" t="s">
         <v>88</v>
@@ -2889,49 +2828,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="33" customWidth="1"/>
     <col min="3" max="3" width="46" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="33"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="167" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C2" s="168"/>
       <c r="D2" s="168"/>
@@ -2939,7 +2873,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="170"/>
       <c r="C3" s="171"/>
       <c r="D3" s="171"/>
@@ -2947,7 +2881,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="173"/>
       <c r="C4" s="174"/>
       <c r="D4" s="174"/>
@@ -2955,10 +2889,10 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2969,7 +2903,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="114"/>
       <c r="C7" s="15" t="s">
         <v>33</v>
@@ -2990,7 +2924,7 @@
       </c>
       <c r="J7" s="121"/>
     </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -3001,10 +2935,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3014,10 +2948,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -3034,7 +2968,7 @@
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="32" t="s">
         <v>61</v>
@@ -3054,7 +2988,7 @@
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -3074,7 +3008,7 @@
       <c r="J12" s="122"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="32" t="s">
         <v>37</v>
@@ -3094,7 +3028,7 @@
       <c r="J13" s="122"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="32" t="s">
         <v>40</v>
@@ -3114,7 +3048,7 @@
       <c r="J14" s="122"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36"/>
       <c r="C15" s="32" t="s">
         <v>41</v>
@@ -3134,7 +3068,7 @@
       <c r="J15" s="122"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="32" t="s">
         <v>42</v>
@@ -3156,7 +3090,7 @@
       </c>
       <c r="J16" s="122"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
       <c r="C17" s="32" t="s">
         <v>43</v>
@@ -3178,7 +3112,7 @@
       </c>
       <c r="J17" s="122"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="65" t="s">
         <v>63</v>
@@ -3199,7 +3133,7 @@
       </c>
       <c r="J18" s="122"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="65" t="s">
         <v>64</v>
@@ -3220,7 +3154,7 @@
       </c>
       <c r="J19" s="122"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36"/>
       <c r="C20" s="65" t="s">
         <v>65</v>
@@ -3241,7 +3175,7 @@
       </c>
       <c r="J20" s="122"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36"/>
       <c r="C21" s="65" t="s">
         <v>66</v>
@@ -3262,7 +3196,7 @@
       </c>
       <c r="J21" s="122"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36"/>
       <c r="C22" s="65" t="s">
         <v>67</v>
@@ -3283,7 +3217,7 @@
       </c>
       <c r="J22" s="122"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="36"/>
       <c r="C23" s="87"/>
       <c r="D23" s="117"/>
@@ -3294,10 +3228,10 @@
       <c r="I23" s="31"/>
       <c r="J23" s="122"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36"/>
       <c r="C24" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="117"/>
       <c r="E24" s="118"/>
@@ -3307,7 +3241,7 @@
       <c r="I24" s="31"/>
       <c r="J24" s="122"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="32" t="s">
         <v>44</v>
@@ -3325,11 +3259,11 @@
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25" s="122"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="32" t="s">
         <v>45</v>
@@ -3350,7 +3284,7 @@
       </c>
       <c r="J26" s="122"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
         <v>12</v>
@@ -3371,7 +3305,7 @@
       </c>
       <c r="J27" s="122"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
         <v>46</v>
@@ -3392,7 +3326,7 @@
       </c>
       <c r="J28" s="122"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36"/>
       <c r="C29" s="32" t="s">
         <v>47</v>
@@ -3410,11 +3344,11 @@
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="122"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="32" t="s">
         <v>48</v>
@@ -3432,11 +3366,11 @@
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J30" s="122"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="32" t="s">
         <v>49</v>
@@ -3457,7 +3391,7 @@
       </c>
       <c r="J31" s="122"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
       <c r="C32" s="32" t="s">
         <v>52</v>
@@ -3476,7 +3410,7 @@
       </c>
       <c r="J32" s="122"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="32" t="s">
         <v>39</v>
@@ -3495,7 +3429,7 @@
       </c>
       <c r="J33" s="122"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
       <c r="C34" s="32"/>
       <c r="D34" s="19"/>
@@ -3506,7 +3440,7 @@
       <c r="I34" s="31"/>
       <c r="J34" s="122"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="36"/>
       <c r="C35" s="14" t="s">
         <v>8</v>
@@ -3519,7 +3453,7 @@
       <c r="I35" s="31"/>
       <c r="J35" s="122"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
       <c r="C36" s="32" t="s">
         <v>38</v>
@@ -3537,11 +3471,11 @@
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J36" s="122"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="36"/>
       <c r="C37" s="32" t="s">
         <v>50</v>
@@ -3559,11 +3493,11 @@
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J37" s="122"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="32" t="s">
         <v>51</v>
@@ -3581,11 +3515,11 @@
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" s="122"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="36"/>
       <c r="C39" s="32" t="s">
         <v>36</v>
@@ -3604,10 +3538,10 @@
       </c>
       <c r="J39" s="122"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="36"/>
       <c r="C40" s="134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="116">
@@ -3617,14 +3551,14 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J40" s="122"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36"/>
       <c r="C41" s="134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="116">
@@ -3634,14 +3568,14 @@
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J41" s="122"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36"/>
       <c r="C42" s="134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="116">
@@ -3651,14 +3585,14 @@
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J42" s="122"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
       <c r="C43" s="134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="116">
@@ -3668,14 +3602,14 @@
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J43" s="122"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="36"/>
       <c r="C44" s="134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="116">
@@ -3685,11 +3619,11 @@
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J44" s="122"/>
     </row>
-    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -3706,43 +3640,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3757,27 +3654,26 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="68" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="68" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="68" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="68" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="68" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="69" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="68" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="68" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="68" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="68" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="69" customWidth="1"/>
     <col min="10" max="10" width="3" style="69" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="69" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="69" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="69" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="69" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="69" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="69" customWidth="1"/>
     <col min="14" max="14" width="60" style="68" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="68"/>
+    <col min="15" max="16384" width="10.7109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -3792,10 +3688,10 @@
       <c r="M2" s="72"/>
       <c r="N2" s="149"/>
     </row>
-    <row r="3" spans="2:14" s="21" customFormat="1">
+    <row r="3" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="128" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3807,21 +3703,21 @@
       </c>
       <c r="H3" s="128"/>
       <c r="I3" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N3" s="150" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -3836,10 +3732,10 @@
       <c r="M4" s="126"/>
       <c r="N4" s="151"/>
     </row>
-    <row r="5" spans="2:14" ht="16" thickBot="1">
+    <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="73"/>
       <c r="C5" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3853,7 +3749,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="152"/>
     </row>
-    <row r="6" spans="2:14" ht="16" thickBot="1">
+    <row r="6" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="73"/>
       <c r="C6" s="146" t="s">
         <v>30</v>
@@ -3878,10 +3774,10 @@
       <c r="M6" s="75"/>
       <c r="N6" s="152"/>
     </row>
-    <row r="7" spans="2:14" ht="16" thickBot="1">
+    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="73"/>
       <c r="C7" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="76"/>
@@ -3902,13 +3798,13 @@
       <c r="L7" s="81"/>
       <c r="M7" s="75"/>
       <c r="N7" s="153" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="16" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="73"/>
       <c r="C8" s="146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="76"/>
@@ -3929,10 +3825,10 @@
       <c r="L8" s="81"/>
       <c r="M8" s="75"/>
       <c r="N8" s="153" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="148"/>
       <c r="D9" s="86"/>
@@ -3947,7 +3843,7 @@
       <c r="M9" s="84"/>
       <c r="N9" s="152"/>
     </row>
-    <row r="10" spans="2:14" ht="16" thickBot="1">
+    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="73"/>
       <c r="C10" s="29" t="s">
         <v>8</v>
@@ -3963,13 +3859,13 @@
       <c r="L10" s="81"/>
       <c r="M10" s="12"/>
       <c r="N10" s="154" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="73"/>
       <c r="C11" s="136" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="82"/>
       <c r="E11" s="82"/>
@@ -3990,10 +3886,10 @@
       <c r="L11" s="81"/>
       <c r="M11" s="12"/>
       <c r="N11" s="154" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="16" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="73"/>
       <c r="C12" s="137" t="s">
         <v>1</v>
@@ -4020,7 +3916,7 @@
       </c>
       <c r="N12" s="155"/>
     </row>
-    <row r="13" spans="2:14" ht="16" thickBot="1">
+    <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="73"/>
       <c r="C13" s="90" t="s">
         <v>6</v>
@@ -4046,10 +3942,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="162" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -4064,10 +3960,10 @@
       <c r="M14" s="85"/>
       <c r="N14" s="152"/>
     </row>
-    <row r="15" spans="2:14" ht="16" thickBot="1">
+    <row r="15" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="73"/>
       <c r="C15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4081,10 +3977,10 @@
       <c r="M15" s="12"/>
       <c r="N15" s="152"/>
     </row>
-    <row r="16" spans="2:14" ht="16" thickBot="1">
+    <row r="16" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="73"/>
       <c r="C16" s="123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -4103,7 +3999,7 @@
       <c r="M16" s="84"/>
       <c r="N16" s="156"/>
     </row>
-    <row r="17" spans="2:14" ht="16" thickBot="1">
+    <row r="17" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="73"/>
       <c r="C17" s="92" t="s">
         <v>9</v>
@@ -4111,7 +4007,7 @@
       <c r="D17" s="92"/>
       <c r="E17" s="92"/>
       <c r="F17" s="124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="89">
         <f>I17</f>
@@ -4127,13 +4023,13 @@
       <c r="L17" s="81"/>
       <c r="M17" s="84"/>
       <c r="N17" s="156" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="16" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="73"/>
       <c r="C18" s="131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -4152,15 +4048,15 @@
       <c r="M18" s="84"/>
       <c r="N18" s="156"/>
     </row>
-    <row r="19" spans="2:14" ht="16" thickBot="1">
+    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="73"/>
       <c r="C19" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="93">
         <v>0</v>
@@ -4175,13 +4071,13 @@
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
       <c r="N19" s="156" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="16" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="73"/>
       <c r="C20" s="131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="95"/>
       <c r="E20" s="95"/>
@@ -4200,15 +4096,15 @@
       <c r="M20" s="84"/>
       <c r="N20" s="156"/>
     </row>
-    <row r="21" spans="2:14" ht="16" thickBot="1">
+    <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="73"/>
       <c r="C21" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="94"/>
       <c r="E21" s="94"/>
       <c r="F21" s="124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="96">
         <f>I21</f>
@@ -4225,7 +4121,7 @@
       <c r="M21" s="84"/>
       <c r="N21" s="155"/>
     </row>
-    <row r="22" spans="2:14" ht="16" thickBot="1">
+    <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="157"/>
       <c r="C22" s="158"/>
       <c r="D22" s="158"/>
@@ -4243,11 +4139,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4262,22 +4153,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="44" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="44" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="35.125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="37.5" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="44"/>
+    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="44" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -4289,7 +4180,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50" t="s">
         <v>22</v>
@@ -4303,7 +4194,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="49"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4315,7 +4206,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="54"/>
       <c r="C5" s="55" t="s">
         <v>31</v>
@@ -4331,19 +4222,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K5" s="55" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -4355,32 +4246,32 @@
       <c r="J6" s="51"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="57"/>
       <c r="D7" s="61"/>
       <c r="E7" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="57"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="49"/>
       <c r="C8" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="57"/>
@@ -4391,10 +4282,10 @@
       <c r="J8" s="59"/>
       <c r="K8" s="57"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="57"/>
@@ -4405,7 +4296,7 @@
       <c r="J9" s="59"/>
       <c r="K9" s="57"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="49"/>
       <c r="C10" s="61" t="s">
         <v>59</v>
@@ -4419,7 +4310,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="57"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="49"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
@@ -4430,7 +4321,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="60"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="49"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
@@ -4442,15 +4333,15 @@
       <c r="J12" s="62"/>
       <c r="K12" s="60"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
@@ -4458,7 +4349,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="49"/>
       <c r="C14" s="61"/>
       <c r="D14" s="57"/>
@@ -4470,7 +4361,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="49"/>
       <c r="C15" s="61" t="s">
         <v>1</v>
@@ -4484,10 +4375,10 @@
       <c r="J15" s="62"/>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="49"/>
       <c r="C16" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="52"/>
@@ -4498,23 +4389,23 @@
       <c r="J16" s="62"/>
       <c r="K16" s="57"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="49"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="49"/>
       <c r="C18" s="61"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="49"/>
       <c r="C19" s="166" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" s="44">
         <v>2010</v>
@@ -4523,10 +4414,10 @@
         <v>2010</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="49"/>
     </row>
   </sheetData>
@@ -4535,11 +4426,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4552,23 +4438,23 @@
       <selection activeCell="C51" sqref="C50:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="138" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="138" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="138" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="138"/>
+    <col min="1" max="1" width="5.85546875" style="138" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="138" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="138" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="138"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="16" thickBot="1"/>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+    <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="142"/>
       <c r="C3" s="143" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="143"/>
       <c r="E3" s="143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="143"/>
       <c r="G3" s="143"/>
@@ -4581,7 +4467,7 @@
       <c r="N3" s="143"/>
       <c r="O3" s="144"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="139"/>
       <c r="C4" s="140"/>
       <c r="D4" s="140"/>
@@ -4597,7 +4483,7 @@
       <c r="N4" s="140"/>
       <c r="O4" s="141"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="139"/>
       <c r="C5" s="140"/>
       <c r="D5" s="140"/>
@@ -4613,10 +4499,10 @@
       <c r="N5" s="140"/>
       <c r="O5" s="141"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="139"/>
       <c r="C6" s="140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="140"/>
       <c r="E6" s="140"/>
@@ -4631,10 +4517,10 @@
       <c r="N6" s="140"/>
       <c r="O6" s="141"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="139"/>
       <c r="C7" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
@@ -4649,7 +4535,7 @@
       <c r="N7" s="140"/>
       <c r="O7" s="141"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="139"/>
       <c r="C8" s="140"/>
       <c r="D8" s="140"/>
@@ -4665,7 +4551,7 @@
       <c r="N8" s="140"/>
       <c r="O8" s="141"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="139"/>
       <c r="C9" s="140"/>
       <c r="D9" s="140"/>
@@ -4681,7 +4567,7 @@
       <c r="N9" s="140"/>
       <c r="O9" s="141"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="139"/>
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
@@ -4697,7 +4583,7 @@
       <c r="N10" s="140"/>
       <c r="O10" s="141"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="139"/>
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
@@ -4713,7 +4599,7 @@
       <c r="N11" s="140"/>
       <c r="O11" s="141"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="139"/>
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
@@ -4733,17 +4619,17 @@
       <c r="N12" s="140"/>
       <c r="O12" s="141"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="139"/>
       <c r="C13" s="140"/>
       <c r="D13" s="164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="140">
         <v>600</v>
       </c>
       <c r="F13" s="140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="140"/>
       <c r="H13" s="140"/>
@@ -4755,11 +4641,11 @@
       <c r="N13" s="140"/>
       <c r="O13" s="141"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="139"/>
       <c r="C14" s="140"/>
       <c r="D14" s="161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="140">
         <v>43</v>
@@ -4777,11 +4663,11 @@
       <c r="N14" s="140"/>
       <c r="O14" s="141"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="139"/>
       <c r="C15" s="140"/>
       <c r="D15" s="161" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="140">
         <v>47</v>
@@ -4799,7 +4685,7 @@
       <c r="N15" s="140"/>
       <c r="O15" s="141"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="139"/>
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
@@ -4815,7 +4701,7 @@
       <c r="N16" s="140"/>
       <c r="O16" s="141"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="139"/>
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
@@ -4831,7 +4717,7 @@
       <c r="N17" s="140"/>
       <c r="O17" s="141"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="139"/>
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
@@ -4847,7 +4733,7 @@
       <c r="N18" s="140"/>
       <c r="O18" s="141"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="139"/>
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
@@ -4863,7 +4749,7 @@
       <c r="N19" s="140"/>
       <c r="O19" s="141"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="139"/>
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
@@ -4879,7 +4765,7 @@
       <c r="N20" s="140"/>
       <c r="O20" s="141"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="139"/>
       <c r="C21" s="140"/>
       <c r="D21" s="140"/>
@@ -4895,7 +4781,7 @@
       <c r="N21" s="140"/>
       <c r="O21" s="141"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="139"/>
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
@@ -4911,7 +4797,7 @@
       <c r="N22" s="140"/>
       <c r="O22" s="141"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
@@ -4927,7 +4813,7 @@
       <c r="N23" s="140"/>
       <c r="O23" s="141"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="139"/>
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
@@ -4943,7 +4829,7 @@
       <c r="N24" s="140"/>
       <c r="O24" s="141"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="139"/>
       <c r="C25" s="140"/>
       <c r="D25" s="140"/>
@@ -4959,10 +4845,10 @@
       <c r="N25" s="140"/>
       <c r="O25" s="141"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="139"/>
       <c r="C26" s="140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="140"/>
       <c r="E26" s="140"/>
@@ -4977,7 +4863,7 @@
       <c r="N26" s="140"/>
       <c r="O26" s="141"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="139"/>
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
@@ -4993,7 +4879,7 @@
       <c r="N27" s="140"/>
       <c r="O27" s="141"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="139"/>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
@@ -5009,7 +4895,7 @@
       <c r="N28" s="140"/>
       <c r="O28" s="141"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="139"/>
       <c r="C29" s="140"/>
       <c r="D29" s="140"/>
@@ -5025,7 +4911,7 @@
       <c r="N29" s="140"/>
       <c r="O29" s="141"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="139"/>
       <c r="C30" s="140"/>
       <c r="D30" s="140"/>
@@ -5041,11 +4927,11 @@
       <c r="N30" s="140"/>
       <c r="O30" s="141"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="139"/>
       <c r="C31" s="140"/>
       <c r="D31" s="140" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="140">
         <v>8</v>
@@ -5063,17 +4949,17 @@
       <c r="N31" s="140"/>
       <c r="O31" s="141"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="139"/>
       <c r="C32" s="140"/>
       <c r="D32" s="140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="140">
         <v>0</v>
       </c>
       <c r="F32" s="140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" s="140"/>
       <c r="H32" s="140"/>
@@ -5085,7 +4971,7 @@
       <c r="N32" s="140"/>
       <c r="O32" s="141"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="139"/>
       <c r="C33" s="140"/>
       <c r="D33" s="140"/>
@@ -5101,7 +4987,7 @@
       <c r="N33" s="140"/>
       <c r="O33" s="141"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="139"/>
       <c r="C34" s="140"/>
       <c r="D34" s="140"/>
@@ -5117,7 +5003,7 @@
       <c r="N34" s="140"/>
       <c r="O34" s="141"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="139"/>
       <c r="C35" s="140"/>
       <c r="D35" s="140"/>
@@ -5133,7 +5019,7 @@
       <c r="N35" s="140"/>
       <c r="O35" s="141"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="139"/>
       <c r="C36" s="140"/>
       <c r="D36" s="140"/>
@@ -5149,7 +5035,7 @@
       <c r="N36" s="140"/>
       <c r="O36" s="141"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="139"/>
       <c r="C37" s="140"/>
       <c r="D37" s="140"/>
@@ -5165,7 +5051,7 @@
       <c r="N37" s="140"/>
       <c r="O37" s="141"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="139"/>
       <c r="C38" s="140"/>
       <c r="D38" s="140"/>
@@ -5181,7 +5067,7 @@
       <c r="N38" s="140"/>
       <c r="O38" s="141"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="139"/>
       <c r="C39" s="140"/>
       <c r="D39" s="140"/>
@@ -5197,7 +5083,7 @@
       <c r="N39" s="140"/>
       <c r="O39" s="141"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="139"/>
       <c r="C40" s="140"/>
       <c r="D40" s="140"/>
@@ -5213,7 +5099,7 @@
       <c r="N40" s="140"/>
       <c r="O40" s="141"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="139"/>
       <c r="C41" s="140"/>
       <c r="D41" s="140"/>
@@ -5229,7 +5115,7 @@
       <c r="N41" s="140"/>
       <c r="O41" s="141"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="139"/>
       <c r="C42" s="140"/>
       <c r="D42" s="140"/>
@@ -5245,7 +5131,7 @@
       <c r="N42" s="140"/>
       <c r="O42" s="141"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="139"/>
       <c r="C43" s="140"/>
       <c r="D43" s="140"/>
@@ -5261,7 +5147,7 @@
       <c r="N43" s="140"/>
       <c r="O43" s="141"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="139"/>
       <c r="C44" s="140"/>
       <c r="D44" s="140"/>
@@ -5277,7 +5163,7 @@
       <c r="N44" s="140"/>
       <c r="O44" s="141"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="139"/>
       <c r="C45" s="140"/>
       <c r="D45" s="140"/>
@@ -5293,7 +5179,7 @@
       <c r="N45" s="140"/>
       <c r="O45" s="141"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="139"/>
       <c r="C46" s="140"/>
       <c r="D46" s="140"/>
@@ -5309,7 +5195,7 @@
       <c r="N46" s="140"/>
       <c r="O46" s="141"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="139"/>
       <c r="C47" s="140"/>
       <c r="D47" s="140"/>
@@ -5325,7 +5211,7 @@
       <c r="N47" s="140"/>
       <c r="O47" s="141"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="139"/>
       <c r="C48" s="140"/>
       <c r="D48" s="140"/>
@@ -5341,7 +5227,7 @@
       <c r="N48" s="140"/>
       <c r="O48" s="141"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="139"/>
       <c r="C49" s="140"/>
       <c r="D49" s="140"/>
@@ -5357,10 +5243,10 @@
       <c r="N49" s="140"/>
       <c r="O49" s="141"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="163"/>
       <c r="C50" s="140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="140"/>
       <c r="E50" s="140"/>
@@ -5375,10 +5261,10 @@
       <c r="N50" s="140"/>
       <c r="O50" s="141"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="139"/>
       <c r="C51" s="164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="140"/>
       <c r="E51" s="140"/>
@@ -5393,7 +5279,7 @@
       <c r="N51" s="140"/>
       <c r="O51" s="141"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="139"/>
       <c r="C52" s="140"/>
       <c r="D52" s="140"/>
@@ -5409,7 +5295,7 @@
       <c r="N52" s="140"/>
       <c r="O52" s="141"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="139"/>
       <c r="C53" s="140"/>
       <c r="D53" s="140"/>
@@ -5425,7 +5311,7 @@
       <c r="N53" s="140"/>
       <c r="O53" s="141"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="139"/>
       <c r="C54" s="140"/>
       <c r="D54" s="140"/>
@@ -5441,7 +5327,7 @@
       <c r="N54" s="140"/>
       <c r="O54" s="141"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="139"/>
       <c r="C55" s="140"/>
       <c r="D55" s="164" t="s">
@@ -5451,7 +5337,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F55" s="164" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G55" s="140"/>
       <c r="H55" s="140"/>
@@ -5463,7 +5349,7 @@
       <c r="N55" s="140"/>
       <c r="O55" s="141"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="139"/>
       <c r="C56" s="140"/>
       <c r="D56" s="164" t="s">
@@ -5473,7 +5359,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="164" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G56" s="140"/>
       <c r="H56" s="140"/>
@@ -5485,7 +5371,7 @@
       <c r="N56" s="140"/>
       <c r="O56" s="141"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="139"/>
       <c r="C57" s="140"/>
       <c r="D57" s="140"/>
@@ -5501,7 +5387,7 @@
       <c r="N57" s="140"/>
       <c r="O57" s="141"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="139"/>
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
@@ -5517,7 +5403,7 @@
       <c r="N58" s="140"/>
       <c r="O58" s="141"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="139"/>
       <c r="C59" s="140"/>
       <c r="D59" s="140"/>
@@ -5533,7 +5419,7 @@
       <c r="N59" s="140"/>
       <c r="O59" s="141"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="139"/>
       <c r="C60" s="140"/>
       <c r="D60" s="140"/>
@@ -5549,7 +5435,7 @@
       <c r="N60" s="140"/>
       <c r="O60" s="141"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="139"/>
       <c r="C61" s="140"/>
       <c r="D61" s="140"/>
@@ -5565,7 +5451,7 @@
       <c r="N61" s="140"/>
       <c r="O61" s="141"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="139"/>
       <c r="C62" s="140"/>
       <c r="D62" s="140"/>
@@ -5581,7 +5467,7 @@
       <c r="N62" s="140"/>
       <c r="O62" s="141"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="139"/>
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
@@ -5597,7 +5483,7 @@
       <c r="N63" s="140"/>
       <c r="O63" s="141"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="139"/>
       <c r="C64" s="140"/>
       <c r="D64" s="140"/>
@@ -5613,7 +5499,7 @@
       <c r="N64" s="140"/>
       <c r="O64" s="141"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="139"/>
       <c r="C65" s="140"/>
       <c r="D65" s="140"/>
@@ -5629,7 +5515,7 @@
       <c r="N65" s="140"/>
       <c r="O65" s="141"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="139"/>
       <c r="C66" s="140"/>
       <c r="D66" s="140"/>
@@ -5645,11 +5531,11 @@
       <c r="N66" s="140"/>
       <c r="O66" s="141"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="139"/>
       <c r="C67" s="140"/>
       <c r="D67" s="164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E67" s="140"/>
       <c r="F67" s="140"/>
@@ -5663,17 +5549,17 @@
       <c r="N67" s="140"/>
       <c r="O67" s="141"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="139"/>
       <c r="C68" s="140"/>
       <c r="D68" s="165" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" s="140">
         <v>250</v>
       </c>
       <c r="F68" s="164" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G68" s="140"/>
       <c r="H68" s="140"/>
@@ -5685,7 +5571,7 @@
       <c r="N68" s="140"/>
       <c r="O68" s="141"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="139"/>
       <c r="C69" s="140"/>
       <c r="D69" s="165"/>
@@ -5701,7 +5587,7 @@
       <c r="N69" s="140"/>
       <c r="O69" s="141"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="139"/>
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
@@ -5717,7 +5603,7 @@
       <c r="N70" s="140"/>
       <c r="O70" s="141"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="139"/>
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
@@ -5733,7 +5619,7 @@
       <c r="N71" s="140"/>
       <c r="O71" s="141"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="139"/>
       <c r="C72" s="140"/>
       <c r="D72" s="140"/>
@@ -5749,7 +5635,7 @@
       <c r="N72" s="140"/>
       <c r="O72" s="141"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="139"/>
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
@@ -5765,7 +5651,7 @@
       <c r="N73" s="140"/>
       <c r="O73" s="141"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="139"/>
       <c r="C74" s="140"/>
       <c r="D74" s="140"/>
@@ -5781,7 +5667,7 @@
       <c r="N74" s="140"/>
       <c r="O74" s="141"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="139"/>
       <c r="C75" s="140"/>
       <c r="D75" s="140"/>
@@ -5797,7 +5683,7 @@
       <c r="N75" s="140"/>
       <c r="O75" s="141"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="139"/>
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
@@ -5813,7 +5699,7 @@
       <c r="N76" s="140"/>
       <c r="O76" s="141"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="139"/>
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
@@ -5829,7 +5715,7 @@
       <c r="N77" s="140"/>
       <c r="O77" s="141"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="139"/>
       <c r="C78" s="140"/>
       <c r="D78" s="140"/>
@@ -5845,7 +5731,7 @@
       <c r="N78" s="140"/>
       <c r="O78" s="141"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="139"/>
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
@@ -5865,10 +5751,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_collective_chp_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/households/households_collective_chp_network_gas.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7494F93-B4D2-454F-968B-C737E4262184}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="138">
   <si>
     <t>Source</t>
   </si>
@@ -238,36 +239,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Author</t>
@@ -650,13 +621,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1501,7 +1472,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1601,9 +1572,6 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2094,6 +2062,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2115,7 +2086,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2153,7 +2130,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2191,7 +2174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2651,58 +2640,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2711,118 +2700,118 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="97"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="100"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="101" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="103" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="108" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="109" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="104" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="106"/>
+      <c r="C23" s="110" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="106" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="107" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="108" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="111" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="112" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
-      <c r="C23" s="113" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2832,67 +2821,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="46" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="33"/>
+    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="169"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="173"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="175"/>
+    <row r="4" spans="2:11" ht="35" customHeight="1">
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="172"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2903,12 +2892,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+    <row r="7" spans="2:11" s="40" customFormat="1" ht="19">
+      <c r="B7" s="111"/>
       <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="112" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2922,9 +2911,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="121"/>
-    </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="118"/>
+    </row>
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2935,10 +2924,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2948,10 +2937,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="129" t="s">
-        <v>101</v>
+      <c r="C10" s="126" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -2963,12 +2952,12 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="145" t="s">
+      <c r="I10" s="142" t="s">
         <v>55</v>
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="32" t="s">
         <v>61</v>
@@ -2988,7 +2977,7 @@
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="36"/>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -3005,10 +2994,10 @@
       <c r="I12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="122"/>
+      <c r="J12" s="119"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="36"/>
       <c r="C13" s="32" t="s">
         <v>37</v>
@@ -3025,10 +3014,10 @@
       <c r="I13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="122"/>
+      <c r="J13" s="119"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="36"/>
       <c r="C14" s="32" t="s">
         <v>40</v>
@@ -3045,10 +3034,10 @@
       <c r="I14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="122"/>
+      <c r="J14" s="119"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="36"/>
       <c r="C15" s="32" t="s">
         <v>41</v>
@@ -3065,10 +3054,10 @@
       <c r="I15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="122"/>
+      <c r="J15" s="119"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="36"/>
       <c r="C16" s="32" t="s">
         <v>42</v>
@@ -3088,9 +3077,9 @@
       <c r="I16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="122"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="119"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="36"/>
       <c r="C17" s="32" t="s">
         <v>43</v>
@@ -3110,529 +3099,424 @@
       <c r="I17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="122"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="119"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="36"/>
-      <c r="C18" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="42">
+      <c r="C18" s="84"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="119"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
+      <c r="B19" s="36"/>
+      <c r="C19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="119"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
+      <c r="B20" s="36"/>
+      <c r="C20" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="43">
+        <f>'Research data'!G16</f>
+        <v>1200000</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="119"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
+      <c r="B21" s="36"/>
+      <c r="C21" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="43">
         <v>0</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="122"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="122"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="42">
-        <v>-0.75</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="122"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="42">
-        <v>-0.75</v>
-      </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="66" t="s">
-        <v>71</v>
+      <c r="G21" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="122"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="119"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="36"/>
-      <c r="C22" s="65" t="s">
-        <v>67</v>
+      <c r="C22" s="32" t="s">
+        <v>12</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E22" s="43">
         <v>0</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="67" t="s">
-        <v>72</v>
+      <c r="G22" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="122"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="119"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="36"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="122"/>
-    </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="119"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="36"/>
-      <c r="C24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="122"/>
-    </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="113">
+        <f>'Research data'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="119"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="36"/>
       <c r="C25" s="32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="43">
-        <f>'Research data'!G16</f>
-        <v>1200000</v>
+        <v>53</v>
+      </c>
+      <c r="E25" s="42">
+        <f>'Research data'!G20</f>
+        <v>16</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H25" s="32"/>
-      <c r="I25" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="122"/>
-    </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="119"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="36"/>
       <c r="C26" s="32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="43">
+        <v>53</v>
+      </c>
+      <c r="E26" s="116">
         <v>0</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H26" s="32"/>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="122"/>
-    </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="119"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>34</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D27" s="19"/>
       <c r="E27" s="43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="122"/>
-    </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="119"/>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E28" s="43">
         <v>0</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="32" t="s">
-        <v>27</v>
-      </c>
+      <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="122"/>
-    </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="119"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="36"/>
-      <c r="C29" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="116">
-        <f>'Research data'!G18</f>
-        <v>0</v>
-      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="32" t="s">
-        <v>58</v>
-      </c>
+      <c r="G29" s="32"/>
       <c r="H29" s="32"/>
-      <c r="I29" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="122"/>
-    </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="31"/>
+      <c r="J29" s="119"/>
+    </row>
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="36"/>
-      <c r="C30" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="42">
-        <f>'Research data'!G20</f>
-        <v>16</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" s="122"/>
-    </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="114"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="119"/>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="36"/>
       <c r="C31" s="32" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="119">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E31" s="43">
+        <f>'Research data'!G11</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H31" s="32"/>
-      <c r="I31" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="122"/>
-    </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="119"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="36"/>
       <c r="C32" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="43">
-        <v>0.1</v>
+        <v>50</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="113">
+        <f>'Research data'!G12</f>
+        <v>1</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H32" s="32"/>
-      <c r="I32" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="122"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="119"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="36"/>
       <c r="C33" s="32" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E33" s="43">
+        <f>'Research data'!G13</f>
+        <v>20</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="119"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="43">
         <v>0</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="122"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="36"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="120"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="122"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="119"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="36"/>
-      <c r="C35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="122"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="113">
+        <v>900</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="119"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="36"/>
-      <c r="C36" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="43">
-        <f>'Research data'!G11</f>
-        <v>5.0000000000000001E-4</v>
+      <c r="C36" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="113">
+        <v>0</v>
       </c>
       <c r="F36" s="32"/>
-      <c r="G36" s="32" t="s">
-        <v>15</v>
-      </c>
+      <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" s="122"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J36" s="119"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="36"/>
-      <c r="C37" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="116">
-        <f>'Research data'!G12</f>
-        <v>1</v>
+      <c r="C37" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="113">
+        <v>4320</v>
       </c>
       <c r="F37" s="32"/>
-      <c r="G37" s="32" t="s">
-        <v>26</v>
-      </c>
+      <c r="G37" s="32"/>
       <c r="H37" s="32"/>
-      <c r="I37" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="122"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="119"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="36"/>
-      <c r="C38" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="43">
-        <f>'Research data'!G13</f>
-        <v>20</v>
+      <c r="C38" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="113">
+        <v>1620</v>
       </c>
       <c r="F38" s="32"/>
-      <c r="G38" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="G38" s="32"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="122"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="119"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="36"/>
-      <c r="C39" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="43">
-        <v>0</v>
+      <c r="C39" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="113">
+        <v>720</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="122"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
-      <c r="C40" s="134" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="116">
-        <v>900</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J40" s="122"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="134" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="116">
-        <v>0</v>
-      </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J41" s="122"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="116">
-        <v>4320</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J42" s="122"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
-      <c r="C43" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="116">
-        <v>1620</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J43" s="122"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
-      <c r="C44" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="116">
-        <v>720</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J44" s="122"/>
-    </row>
-    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
+        <v>136</v>
+      </c>
+      <c r="J39" s="119"/>
+    </row>
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3644,8 +3528,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:N22"/>
@@ -3654,88 +3538,88 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="68" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="68" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="68" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="68" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="68" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="69" customWidth="1"/>
-    <col min="10" max="10" width="3" style="69" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="69" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="69" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="69" customWidth="1"/>
-    <col min="14" max="14" width="60" style="68" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="68"/>
+    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
+    <col min="10" max="10" width="3" style="66" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="66" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="66" customWidth="1"/>
+    <col min="14" max="14" width="60" style="65" customWidth="1"/>
+    <col min="15" max="16384" width="10.6640625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="149"/>
-    </row>
-    <row r="3" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="146"/>
+    </row>
+    <row r="3" spans="2:14" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="128" t="s">
-        <v>91</v>
+      <c r="C3" s="125" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="128"/>
+      <c r="G3" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="125"/>
       <c r="I3" s="63" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="N3" s="150" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="151"/>
-    </row>
-    <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="73"/>
+        <v>126</v>
+      </c>
+      <c r="N3" s="147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="148"/>
+    </row>
+    <row r="5" spans="2:14" ht="17" thickBot="1">
+      <c r="B5" s="70"/>
       <c r="C5" s="29" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3747,104 +3631,104 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="152"/>
-    </row>
-    <row r="6" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73"/>
-      <c r="C6" s="146" t="s">
+      <c r="N5" s="149"/>
+    </row>
+    <row r="6" spans="2:14" ht="17" thickBot="1">
+      <c r="B6" s="70"/>
+      <c r="C6" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="75">
         <f>ROUND(2,0)</f>
         <v>2</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="78">
+      <c r="H6" s="76"/>
+      <c r="I6" s="75">
         <f>Notes!E12</f>
         <v>2</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="152"/>
-    </row>
-    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="73"/>
-      <c r="C7" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="147" t="s">
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="149"/>
+    </row>
+    <row r="7" spans="2:14" ht="17" thickBot="1">
+      <c r="B7" s="70"/>
+      <c r="C7" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="75">
         <f>I7</f>
         <v>43</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="78">
+      <c r="H7" s="76"/>
+      <c r="I7" s="75">
         <f>Notes!E14</f>
         <v>43</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="153" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73"/>
-      <c r="C8" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="147" t="s">
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="150" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17" thickBot="1">
+      <c r="B8" s="70"/>
+      <c r="C8" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="75">
         <f>I8</f>
         <v>47</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="78">
+      <c r="H8" s="76"/>
+      <c r="I8" s="75">
         <f>Notes!E15</f>
         <v>47</v>
       </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="153" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="73"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="152"/>
-    </row>
-    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="73"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="150" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="70"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="149"/>
+    </row>
+    <row r="10" spans="2:14" ht="17" thickBot="1">
+      <c r="B10" s="70"/>
       <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
@@ -3856,114 +3740,114 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="81"/>
+      <c r="L10" s="78"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="154" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="73"/>
-      <c r="C11" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="77" t="s">
+      <c r="N10" s="151" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="17" thickBot="1">
+      <c r="B11" s="70"/>
+      <c r="C11" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="132">
         <f>ROUND(K11,4)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="135">
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="132">
         <f>G6*0.1/400</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L11" s="81"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="154" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="73"/>
-      <c r="C12" s="137" t="s">
+      <c r="N11" s="151" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="17" thickBot="1">
+      <c r="B12" s="70"/>
+      <c r="C12" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="77" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="86">
         <f>ROUND(1,1)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="78">
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="75">
         <v>1</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="78">
+      <c r="L12" s="72"/>
+      <c r="M12" s="75">
         <f>Notes!E55</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N12" s="155"/>
-    </row>
-    <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="90" t="s">
+      <c r="N12" s="152"/>
+    </row>
+    <row r="13" spans="2:14" ht="17" thickBot="1">
+      <c r="B13" s="70"/>
+      <c r="C13" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="77" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="88">
         <f>M13</f>
         <v>20</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="80">
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="77">
         <v>25</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="80">
+      <c r="L13" s="72"/>
+      <c r="M13" s="77">
         <f>Notes!E56</f>
         <v>20</v>
       </c>
-      <c r="N13" s="162" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="73"/>
+      <c r="N13" s="159" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="70"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="152"/>
-    </row>
-    <row r="15" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="73"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="149"/>
+    </row>
+    <row r="15" spans="2:14" ht="17" thickBot="1">
+      <c r="B15" s="70"/>
       <c r="C15" s="13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3973,168 +3857,168 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="81"/>
+      <c r="L15" s="78"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="152"/>
-    </row>
-    <row r="16" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="73"/>
-      <c r="C16" s="123" t="s">
-        <v>96</v>
+      <c r="N15" s="149"/>
+    </row>
+    <row r="16" spans="2:14" ht="17" thickBot="1">
+      <c r="B16" s="70"/>
+      <c r="C16" s="120" t="s">
+        <v>86</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G16" s="86">
         <f>ROUND(G17*G6*1000,2)</f>
         <v>1200000</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="156"/>
-    </row>
-    <row r="17" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
-      <c r="C17" s="92" t="s">
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="153"/>
+    </row>
+    <row r="17" spans="2:14" ht="17" thickBot="1">
+      <c r="B17" s="70"/>
+      <c r="C17" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="89">
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="86">
         <f>I17</f>
         <v>600</v>
       </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="96">
+      <c r="H17" s="81"/>
+      <c r="I17" s="93">
         <f>Notes!E13</f>
         <v>600</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="156" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="131" t="s">
-        <v>97</v>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="153" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="17" thickBot="1">
+      <c r="B18" s="70"/>
+      <c r="C18" s="128" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="90">
         <f>ROUND(G19*G6*1000,2)</f>
         <v>0</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="156"/>
-    </row>
-    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="123" t="s">
-        <v>98</v>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="153"/>
+    </row>
+    <row r="19" spans="2:14" ht="17" thickBot="1">
+      <c r="B19" s="70"/>
+      <c r="C19" s="120" t="s">
+        <v>88</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="93">
+      <c r="F19" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="90">
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="96">
+      <c r="I19" s="93">
         <f>Notes!E32</f>
         <v>0</v>
       </c>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="156" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="77" t="s">
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="153" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17" thickBot="1">
+      <c r="B20" s="70"/>
+      <c r="C20" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="86">
         <f>ROUND(G21*G6,2)</f>
         <v>16</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="156"/>
-    </row>
-    <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
-      <c r="C21" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="124" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="96">
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="153"/>
+    </row>
+    <row r="21" spans="2:14" ht="17" thickBot="1">
+      <c r="B21" s="70"/>
+      <c r="C21" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="93">
         <f>I21</f>
         <v>8</v>
       </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="96">
+      <c r="H21" s="81"/>
+      <c r="I21" s="93">
         <f>Notes!E31</f>
         <v>8</v>
       </c>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="155"/>
-    </row>
-    <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="160"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="152"/>
+    </row>
+    <row r="22" spans="2:14" ht="17" thickBot="1">
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4143,8 +4027,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
@@ -4153,22 +4037,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="44" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="44"/>
+    <col min="1" max="1" width="3.33203125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="44" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -4180,7 +4064,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="49"/>
       <c r="C3" s="50" t="s">
         <v>22</v>
@@ -4194,7 +4078,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="49"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4206,7 +4090,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="54"/>
       <c r="C5" s="55" t="s">
         <v>31</v>
@@ -4222,19 +4106,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K5" s="55" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -4246,32 +4130,32 @@
       <c r="J6" s="51"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="32">
       <c r="B7" s="49"/>
       <c r="C7" s="57"/>
       <c r="D7" s="61"/>
       <c r="E7" s="57" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K7" s="57"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="49"/>
       <c r="C8" s="61" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="57"/>
@@ -4282,10 +4166,10 @@
       <c r="J8" s="59"/>
       <c r="K8" s="57"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="49"/>
       <c r="C9" s="61" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="57"/>
@@ -4296,7 +4180,7 @@
       <c r="J9" s="59"/>
       <c r="K9" s="57"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="49"/>
       <c r="C10" s="61" t="s">
         <v>59</v>
@@ -4310,7 +4194,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="57"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="49"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
@@ -4321,7 +4205,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="60"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="49"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
@@ -4333,15 +4217,15 @@
       <c r="J12" s="62"/>
       <c r="K12" s="60"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="49"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="52" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
@@ -4349,7 +4233,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="49"/>
       <c r="C14" s="61"/>
       <c r="D14" s="57"/>
@@ -4361,7 +4245,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="49"/>
       <c r="C15" s="61" t="s">
         <v>1</v>
@@ -4375,10 +4259,10 @@
       <c r="J15" s="62"/>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="49"/>
       <c r="C16" s="61" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="52"/>
@@ -4389,23 +4273,23 @@
       <c r="J16" s="62"/>
       <c r="K16" s="57"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="49"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="49"/>
       <c r="C18" s="61"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="49"/>
-      <c r="C19" s="166" t="s">
+      <c r="C19" s="163" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G19" s="44">
         <v>2010</v>
@@ -4414,10 +4298,10 @@
         <v>2010</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="49"/>
     </row>
   </sheetData>
@@ -4430,1322 +4314,1322 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:O79"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C51" sqref="C50:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="138" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="138" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="138" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="138"/>
+    <col min="1" max="1" width="5.83203125" style="135" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="135" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="135" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="135"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="142"/>
-      <c r="C3" s="143" t="s">
+    <row r="2" spans="2:15" ht="17" thickBot="1"/>
+    <row r="3" spans="2:15" s="21" customFormat="1">
+      <c r="B3" s="139"/>
+      <c r="C3" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="144"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="141"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="139"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="141"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="139"/>
-      <c r="C6" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="141"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="139"/>
-      <c r="C7" s="140" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="141"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="141"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="141"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="139"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="141"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="141"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140">
+      <c r="D3" s="140"/>
+      <c r="E3" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="141"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="138"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="138"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="136"/>
+      <c r="C6" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="138"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="136"/>
+      <c r="C7" s="137" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="138"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="136"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="138"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="136"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="138"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="136"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="138"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="136"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137">
         <v>2</v>
       </c>
-      <c r="F12" s="140" t="s">
+      <c r="F12" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="141"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="164" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="140">
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="136"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="161" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="137">
         <v>600</v>
       </c>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="138"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="136"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="141"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="140">
+      <c r="E14" s="137">
         <v>43</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="141"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="161" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="140">
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="138"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="158" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="137">
         <v>47</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="141"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="141"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="141"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="141"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="141"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="141"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="141"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="141"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="141"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="141"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="139"/>
-      <c r="C26" s="140" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="141"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="141"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="141"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="141"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="139"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="141"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="140">
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="136"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="138"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="138"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="136"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="138"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="138"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="138"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="138"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="136"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="138"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="138"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="136"/>
+      <c r="C26" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="138"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="136"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="138"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="138"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="136"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="138"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="136"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="138"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="136"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="137">
         <v>8</v>
       </c>
-      <c r="F31" s="140" t="s">
+      <c r="F31" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="141"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="139"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140" t="s">
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="138"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="136"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="137">
+        <v>0</v>
+      </c>
+      <c r="F32" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="138"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="136"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="138"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="136"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="138"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="136"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="138"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="136"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="138"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="136"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="138"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="136"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="138"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="138"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="136"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="138"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="136"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
+      <c r="N41" s="137"/>
+      <c r="O41" s="138"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="136"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="138"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="136"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
+      <c r="O43" s="138"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="136"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="137"/>
+      <c r="M44" s="137"/>
+      <c r="N44" s="137"/>
+      <c r="O44" s="138"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="136"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="138"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="136"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="137"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="138"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="136"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="138"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="136"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="137"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="138"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="136"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="137"/>
+      <c r="M49" s="137"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="138"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="160"/>
+      <c r="C50" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="140">
-        <v>0</v>
-      </c>
-      <c r="F32" s="140" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="141"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="141"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="141"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="141"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="139"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="140"/>
-      <c r="N36" s="140"/>
-      <c r="O36" s="141"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="139"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="141"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="140"/>
-      <c r="L38" s="140"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="141"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="139"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="140"/>
-      <c r="O39" s="141"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="141"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="141"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="139"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="141"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="139"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="141"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="139"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="140"/>
-      <c r="O44" s="141"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="139"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="141"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="141"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="141"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="139"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="140"/>
-      <c r="L48" s="140"/>
-      <c r="M48" s="140"/>
-      <c r="N48" s="140"/>
-      <c r="O48" s="141"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="140"/>
-      <c r="N49" s="140"/>
-      <c r="O49" s="141"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="163"/>
-      <c r="C50" s="140" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="140"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="141"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="139"/>
-      <c r="C51" s="164" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="141"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="139"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="140"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="140"/>
-      <c r="N52" s="140"/>
-      <c r="O52" s="141"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="139"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="140"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="141"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="139"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="140"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="141"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="139"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="164" t="s">
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="137"/>
+      <c r="O50" s="138"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="136"/>
+      <c r="C51" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="137"/>
+      <c r="M51" s="137"/>
+      <c r="N51" s="137"/>
+      <c r="O51" s="138"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="136"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="138"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="136"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="138"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="136"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="137"/>
+      <c r="L54" s="137"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="137"/>
+      <c r="O54" s="138"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="136"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="140">
+      <c r="E55" s="137">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F55" s="164" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="140"/>
-      <c r="L55" s="140"/>
-      <c r="M55" s="140"/>
-      <c r="N55" s="140"/>
-      <c r="O55" s="141"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="139"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="164" t="s">
+      <c r="F55" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="137"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="138"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="136"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="140">
+      <c r="E56" s="137">
         <v>20</v>
       </c>
-      <c r="F56" s="164" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="140"/>
-      <c r="N56" s="140"/>
-      <c r="O56" s="141"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="139"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="140"/>
-      <c r="M57" s="140"/>
-      <c r="N57" s="140"/>
-      <c r="O57" s="141"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="139"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140"/>
-      <c r="N58" s="140"/>
-      <c r="O58" s="141"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="139"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="140"/>
-      <c r="O59" s="141"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="139"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140"/>
-      <c r="N60" s="140"/>
-      <c r="O60" s="141"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="139"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140"/>
-      <c r="N61" s="140"/>
-      <c r="O61" s="141"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="140"/>
-      <c r="O62" s="141"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="139"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="140"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="140"/>
-      <c r="O63" s="141"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="139"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="141"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="139"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="140"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140"/>
-      <c r="N65" s="140"/>
-      <c r="O65" s="141"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="139"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140"/>
-      <c r="N66" s="140"/>
-      <c r="O66" s="141"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="139"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="164" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="140"/>
-      <c r="L67" s="140"/>
-      <c r="M67" s="140"/>
-      <c r="N67" s="140"/>
-      <c r="O67" s="141"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="139"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="165" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="140">
+      <c r="F56" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="137"/>
+      <c r="O56" s="138"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="136"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="137"/>
+      <c r="O57" s="138"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="136"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="137"/>
+      <c r="O58" s="138"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="136"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="137"/>
+      <c r="O59" s="138"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="136"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="138"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="136"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="137"/>
+      <c r="O61" s="138"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="136"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="137"/>
+      <c r="O62" s="138"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="136"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="137"/>
+      <c r="N63" s="137"/>
+      <c r="O63" s="138"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="136"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="137"/>
+      <c r="O64" s="138"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="136"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
+      <c r="J65" s="137"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="137"/>
+      <c r="O65" s="138"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="136"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="137"/>
+      <c r="O66" s="138"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="136"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="161" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="137"/>
+      <c r="N67" s="137"/>
+      <c r="O67" s="138"/>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="136"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="137">
         <v>250</v>
       </c>
-      <c r="F68" s="164" t="s">
-        <v>140</v>
-      </c>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="140"/>
-      <c r="O68" s="141"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="139"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="140"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="140"/>
-      <c r="N69" s="140"/>
-      <c r="O69" s="141"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="139"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="140"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="140"/>
-      <c r="O70" s="141"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="139"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="140"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="140"/>
-      <c r="H71" s="140"/>
-      <c r="I71" s="140"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="140"/>
-      <c r="L71" s="140"/>
-      <c r="M71" s="140"/>
-      <c r="N71" s="140"/>
-      <c r="O71" s="141"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="139"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="141"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="139"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="140"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="140"/>
-      <c r="N73" s="140"/>
-      <c r="O73" s="141"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="139"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="140"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="141"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="139"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="140"/>
-      <c r="O75" s="141"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="139"/>
-      <c r="C76" s="140"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="140"/>
-      <c r="I76" s="140"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="140"/>
-      <c r="O76" s="141"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="139"/>
-      <c r="C77" s="140"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="140"/>
-      <c r="I77" s="140"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="140"/>
-      <c r="M77" s="140"/>
-      <c r="N77" s="140"/>
-      <c r="O77" s="141"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="139"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="141"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="139"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="140"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="140"/>
-      <c r="I79" s="140"/>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="140"/>
-      <c r="N79" s="140"/>
-      <c r="O79" s="141"/>
+      <c r="F68" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="137"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="137"/>
+      <c r="O68" s="138"/>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="136"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="137"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="137"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="137"/>
+      <c r="O69" s="138"/>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="136"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="137"/>
+      <c r="O70" s="138"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="136"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="137"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="137"/>
+      <c r="O71" s="138"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="136"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="137"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="137"/>
+      <c r="K72" s="137"/>
+      <c r="L72" s="137"/>
+      <c r="M72" s="137"/>
+      <c r="N72" s="137"/>
+      <c r="O72" s="138"/>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="136"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="137"/>
+      <c r="L73" s="137"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="137"/>
+      <c r="O73" s="138"/>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="136"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="137"/>
+      <c r="K74" s="137"/>
+      <c r="L74" s="137"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="137"/>
+      <c r="O74" s="138"/>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="136"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="137"/>
+      <c r="K75" s="137"/>
+      <c r="L75" s="137"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="137"/>
+      <c r="O75" s="138"/>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="136"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="137"/>
+      <c r="K76" s="137"/>
+      <c r="L76" s="137"/>
+      <c r="M76" s="137"/>
+      <c r="N76" s="137"/>
+      <c r="O76" s="138"/>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="136"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="137"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="137"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="137"/>
+      <c r="J77" s="137"/>
+      <c r="K77" s="137"/>
+      <c r="L77" s="137"/>
+      <c r="M77" s="137"/>
+      <c r="N77" s="137"/>
+      <c r="O77" s="138"/>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="136"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="137"/>
+      <c r="O78" s="138"/>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="136"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="137"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="137"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="137"/>
+      <c r="K79" s="137"/>
+      <c r="L79" s="137"/>
+      <c r="M79" s="137"/>
+      <c r="N79" s="137"/>
+      <c r="O79" s="138"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
